--- a/ILRG_ORAM_H_assinantes_AT_forms/ILRG_ORAM_H_assinantes_AT_forms-media/ILRG_ORAM_H_assinantes_AT_forms.xlsx
+++ b/ILRG_ORAM_H_assinantes_AT_forms/ILRG_ORAM_H_assinantes_AT_forms-media/ILRG_ORAM_H_assinantes_AT_forms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_H_assinantes_AT_forms\ILRG_ORAM_H_assinantes_AT_forms-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25057B80-85A9-4148-80A8-2965CB352DD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D5772-0F5F-419A-96EA-853F2EAA8FE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$21</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="1220">
   <si>
     <t>type</t>
   </si>
@@ -3627,15 +3627,88 @@
   </si>
   <si>
     <t>tec_name_sign</t>
+  </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3840,394 +3913,402 @@
   </borders>
   <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="241" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="241" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="241" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="241" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="241"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="241"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="242" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="242" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4811,11 +4892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5746,13 +5827,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C14"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5781,516 +5862,653 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="65" t="s">
         <v>1083</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="66" t="s">
         <v>1084</v>
       </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="65" t="s">
         <v>1072</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="66" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="65" t="s">
         <v>1085</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="66" t="s">
         <v>1086</v>
       </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="65" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="65" t="s">
         <v>1087</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C10" s="66" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B11" s="65" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="65" t="s">
         <v>1089</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C13" s="66" t="s">
         <v>1090</v>
       </c>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B14" s="65" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="65" t="s">
         <v>1091</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C16" s="66" t="s">
         <v>1092</v>
       </c>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B17" s="65" t="s">
         <v>1093</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C17" s="66" t="s">
         <v>1094</v>
       </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B18" s="65" t="s">
         <v>1095</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C18" s="66" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B19" s="65" t="s">
         <v>1097</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C19" s="66" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B20" s="65" t="s">
         <v>1099</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C20" s="66" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B21" s="65" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="65" t="s">
         <v>1101</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C23" s="66" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B24" s="65" t="s">
         <v>1103</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C24" s="66" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B25" s="65" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="65" t="s">
         <v>1105</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C27" s="64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="51"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="39"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C30" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B31" s="50" t="s">
         <v>1106</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C31" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B33" s="50" t="s">
         <v>1107</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C33" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B34" s="50" t="s">
         <v>1108</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C34" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B35" s="50" t="s">
         <v>1109</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C35" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B36" s="50" t="s">
         <v>1110</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C36" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B37" s="50" t="s">
         <v>1111</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C37" s="39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B38" s="50" t="s">
         <v>1112</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C38" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B39" s="50" t="s">
         <v>1113</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C39" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B40" s="50" t="s">
         <v>1114</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C40" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B41" s="50" t="s">
         <v>1115</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C41" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B42" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C42" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B43" s="50" t="s">
         <v>1105</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C43" s="39" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="39"/>
-    </row>
-    <row r="32" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="39"/>
+    </row>
+    <row r="45" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B45" s="50" t="s">
         <v>1117</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C45" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B46" s="50" t="s">
         <v>1118</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C46" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="50" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="C47" s="39"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B48" s="50" t="s">
         <v>1119</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C48" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B49" s="50" t="s">
         <v>1120</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C49" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B50" s="50" t="s">
         <v>1121</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C50" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="39"/>
-    </row>
-    <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="39"/>
+    </row>
+    <row r="52" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B52" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C52" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+    <row r="53" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B53" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C53" s="55" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+    <row r="54" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B54" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C54" s="55" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B55" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C55" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B56" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C56" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B57" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C57" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B58" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C58" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B59" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C59" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B60" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C60" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C61" s="55" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:C14">
-    <sortCondition ref="C3"/>
+  <autoFilter ref="A1:C21" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C17:C27">
+    <sortCondition ref="C16"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -31608,7 +31826,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31642,7 +31860,7 @@
         <v>1074</v>
       </c>
       <c r="C2" s="30">
-        <v>201904034</v>
+        <v>201904101</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>1075</v>

--- a/ILRG_ORAM_H_assinantes_AT_forms/ILRG_ORAM_H_assinantes_AT_forms-media/ILRG_ORAM_H_assinantes_AT_forms.xlsx
+++ b/ILRG_ORAM_H_assinantes_AT_forms/ILRG_ORAM_H_assinantes_AT_forms-media/ILRG_ORAM_H_assinantes_AT_forms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_H_assinantes_AT_forms\ILRG_ORAM_H_assinantes_AT_forms-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F80A58-3E7F-4F50-A5B3-FEF39414D211}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3FF103-0772-4854-9214-750643210B92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="1225">
   <si>
     <t>type</t>
   </si>
@@ -3690,15 +3690,40 @@
   </si>
   <si>
     <t>Wiwanana [Muelamassi]</t>
+  </si>
+  <si>
+    <t>AS040024</t>
+  </si>
+  <si>
+    <t>Nari None [Inhanhane]</t>
+  </si>
+  <si>
+    <t>AS040025</t>
+  </si>
+  <si>
+    <t>Ohaua [Maripiha]</t>
+  </si>
+  <si>
+    <t>AS040023</t>
+  </si>
+  <si>
+    <t>Vahane Murima [Muyeye]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3910,395 +3935,403 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="242" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="242" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="243" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="243"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="243" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="243"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4883,11 +4916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6510,9 +6543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03936949-5E00-495A-BE29-C003D899EAA3}">
   <dimension ref="A1:G4196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C550" sqref="C550"/>
+      <selection pane="bottomLeft" activeCell="C551" sqref="C551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14389,49 +14422,86 @@
       <c r="C536" s="58"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="54" t="s">
+      <c r="A537" s="66" t="s">
         <v>1071</v>
       </c>
-      <c r="B537" s="59" t="s">
+      <c r="B537" s="67" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C537" s="68" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D537" s="69"/>
+      <c r="E537" s="69"/>
+      <c r="F537" s="69" t="s">
+        <v>652</v>
+      </c>
+      <c r="G537" s="58"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="66" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B538" s="67" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C538" s="68" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D538" s="69"/>
+      <c r="E538" s="69"/>
+      <c r="F538" s="69" t="s">
+        <v>652</v>
+      </c>
+      <c r="G538" s="58"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="66" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B539" s="67" t="s">
         <v>1215</v>
       </c>
-      <c r="C537" s="58" t="s">
+      <c r="C539" s="68" t="s">
         <v>1216</v>
       </c>
-      <c r="F537" s="57" t="s">
+      <c r="D539" s="69"/>
+      <c r="E539" s="69"/>
+      <c r="F539" s="69" t="s">
         <v>652</v>
       </c>
-      <c r="G537" s="58"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="54" t="s">
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="66" t="s">
         <v>1071</v>
       </c>
-      <c r="B538" s="59" t="s">
+      <c r="B540" s="67" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C540" s="68" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D540" s="69"/>
+      <c r="E540" s="69"/>
+      <c r="F540" s="69" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="66" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B541" s="67" t="s">
         <v>1217</v>
       </c>
-      <c r="C538" s="58" t="s">
+      <c r="C541" s="68" t="s">
         <v>1218</v>
       </c>
-      <c r="F538" s="57" t="s">
+      <c r="D541" s="69"/>
+      <c r="E541" s="69"/>
+      <c r="F541" s="69" t="s">
         <v>652</v>
       </c>
-      <c r="G538" s="58"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="54"/>
-      <c r="B539" s="59"/>
-      <c r="C539" s="58"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="54"/>
-      <c r="B540" s="59"/>
-      <c r="C540" s="58"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" s="54"/>
-      <c r="B541" s="59"/>
-      <c r="C541" s="58"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="54"/>
@@ -31786,7 +31856,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31820,7 +31890,7 @@
         <v>1074</v>
       </c>
       <c r="C2" s="30">
-        <v>201904103</v>
+        <v>201904171</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>1075</v>
